--- a/biology/Biochimie/Nitrogénase/Nitrogénase.xlsx
+++ b/biology/Biochimie/Nitrogénase/Nitrogénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nitrog%C3%A9nase</t>
+          <t>Nitrogénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nitrogénase est un complexe enzymatique propre à certaines bactéries qui catalyse la séquence complète des réactions au cours desquelles la réduction de diazote N2 conduit à la formation d'ammoniac NH3.
 Pour ce faire, la nitrogénase s'accompagne d'un phénomène d'hydrogénation.
@@ -490,7 +502,7 @@
 H-N=N-H
 H-N=N-OH
 H-N=N-NH2
-Ces trois derniers sont utilisés en quantités moins abondantes. Elle catalyse également la réduction d'autres molécules : N2O en N2, N3− en N2, C2H2 en C2H4, 2H+ en H2 et catalyse l'hydrolyse de l'ATP[1].
+Ces trois derniers sont utilisés en quantités moins abondantes. Elle catalyse également la réduction d'autres molécules : N2O en N2, N3− en N2, C2H2 en C2H4, 2H+ en H2 et catalyse l'hydrolyse de l'ATP.
 La nitrogénase est un complexe de 200 kDa et de 25 sous-unités regroupées en des composants (composant 1 et composant 2).
 Le composant 1 est composé de 4 grosses sous-unités et 2 molybdènes, noyaux sur lesquels s'accroche l'azote.
 Le composant 2 est activé lorsqu'il est lié à l'ATP. Une fois activé, il pourra transférer ses électrons au composant 1.
